--- a/src/com.gyt.ms/Content/templates/港运通信息数据库导入.xlsx
+++ b/src/com.gyt.ms/Content/templates/港运通信息数据库导入.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="74">
   <si>
     <t>业务类型</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>办理日期</t>
-  </si>
-  <si>
-    <t>经办人</t>
   </si>
   <si>
     <t>天然气车辆</t>
@@ -93,10 +90,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>初审通过</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>已办理</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -238,6 +231,18 @@
   </si>
   <si>
     <t>深圳市福强土石方有限公司</t>
+  </si>
+  <si>
+    <t>已注销</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人用户名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -848,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,6 +868,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1235,10 +1243,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1250,10 +1315,11 @@
     <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1273,655 +1339,514 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="4"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="3">
         <v>42472</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="3">
         <v>42473</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="3">
         <v>42474</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3">
         <v>42474</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3">
         <v>42474</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3">
         <v>42474</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
         <v>42843</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3">
         <v>42474</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3">
         <v>42474</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3">
         <v>42474</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3">
         <v>42474</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3">
         <v>42843</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3">
         <v>42474</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="3">
         <v>42474</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3">
         <v>42474</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3">
         <v>42843</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="3">
         <v>42474</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" s="3">
         <v>42474</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="3">
         <v>42474</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3">
         <v>42474</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/com.gyt.ms/Content/templates/港运通信息数据库导入.xlsx
+++ b/src/com.gyt.ms/Content/templates/港运通信息数据库导入.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GithubRepository\JaapYang_Local_Gyt_Sprint3\src\com.gyt.ms\Content\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7830"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="港运通信息数据库导入" sheetId="1" r:id="rId1"/>
@@ -249,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +424,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -853,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,26 +885,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -907,15 +929,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -952,12 +974,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -999,7 +1024,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,7 +1059,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1245,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1302,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1320,22 +1345,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1344,7 +1369,7 @@
       <c r="H1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>23</v>
       </c>
     </row>

--- a/src/com.gyt.ms/Content/templates/港运通信息数据库导入.xlsx
+++ b/src/com.gyt.ms/Content/templates/港运通信息数据库导入.xlsx
@@ -866,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,9 +889,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1328,7 +1325,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1348,7 +1345,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
